--- a/data/近十年就业人口数据.xlsx
+++ b/data/近十年就业人口数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实操\vscode实操\华数杯国际模板01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBB739B-03C1-45CC-A673-18DF8636417F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD4FFAF-D3A1-4113-BFFB-0C7C94B8A996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>AVG-People</t>
+    <t>AVG_People</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2788,7 +2788,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
